--- a/FY2017 DOD (%).xlsx
+++ b/FY2017 DOD (%).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hudsonmiller/Desktop/Gov 1005/Final Project/Milestone 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1C1DE3-7EC9-404B-91BC-32162E35BEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FB50B-C511-B841-BA52-837EE9E59FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3916B817-9D48-1942-997F-10158B16AA37}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{3916B817-9D48-1942-997F-10158B16AA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>YEAR</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Two or More</t>
@@ -419,21 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BB0F5E-5779-FA44-B2FC-674E2F9291A5}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
@@ -453,31 +448,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2003</v>
       </c>
@@ -502,32 +491,26 @@
       <c r="H2" s="3">
         <v>2.42</v>
       </c>
-      <c r="I2" s="2">
-        <v>100</v>
+      <c r="I2" s="3">
+        <v>78.400000000000006</v>
       </c>
       <c r="J2" s="3">
-        <v>78.400000000000006</v>
+        <v>14.1</v>
       </c>
       <c r="K2" s="3">
-        <v>14.1</v>
+        <v>0.95</v>
       </c>
       <c r="L2" s="3">
-        <v>0.95</v>
+        <v>4.17</v>
       </c>
       <c r="M2" s="3">
-        <v>4.17</v>
+        <v>0.35</v>
       </c>
       <c r="N2" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="O2" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="P2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2004</v>
       </c>
@@ -552,32 +535,26 @@
       <c r="H3" s="3">
         <v>4.9400000000000004</v>
       </c>
-      <c r="I3" s="2">
-        <v>100</v>
+      <c r="I3" s="3">
+        <v>78.52</v>
       </c>
       <c r="J3" s="3">
-        <v>78.52</v>
+        <v>13.96</v>
       </c>
       <c r="K3" s="3">
-        <v>13.96</v>
+        <v>0.99</v>
       </c>
       <c r="L3" s="3">
-        <v>0.99</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="M3" s="3">
-        <v>4.1399999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N3" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O3" s="3">
         <v>2.12</v>
       </c>
-      <c r="P3" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2005</v>
       </c>
@@ -602,32 +579,26 @@
       <c r="H4" s="3">
         <v>6.42</v>
       </c>
-      <c r="I4" s="2">
-        <v>100</v>
+      <c r="I4" s="3">
+        <v>78.14</v>
       </c>
       <c r="J4" s="3">
-        <v>78.14</v>
+        <v>14.24</v>
       </c>
       <c r="K4" s="3">
-        <v>14.24</v>
+        <v>0.99</v>
       </c>
       <c r="L4" s="3">
-        <v>0.99</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M4" s="3">
-        <v>4.0999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="N4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="O4" s="3">
         <v>2.23</v>
       </c>
-      <c r="P4" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2006</v>
       </c>
@@ -652,32 +623,26 @@
       <c r="H5" s="3">
         <v>4.43</v>
       </c>
-      <c r="I5" s="2">
-        <v>100</v>
+      <c r="I5" s="3">
+        <v>77.989999999999995</v>
       </c>
       <c r="J5" s="3">
-        <v>77.989999999999995</v>
+        <v>14.38</v>
       </c>
       <c r="K5" s="3">
-        <v>14.38</v>
+        <v>0.91</v>
       </c>
       <c r="L5" s="3">
-        <v>0.91</v>
+        <v>4.16</v>
       </c>
       <c r="M5" s="3">
-        <v>4.16</v>
+        <v>0.33</v>
       </c>
       <c r="N5" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="O5" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P5" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2007</v>
       </c>
@@ -702,32 +667,26 @@
       <c r="H6" s="3">
         <v>3.19</v>
       </c>
-      <c r="I6" s="2">
-        <v>100</v>
+      <c r="I6" s="3">
+        <v>77.930000000000007</v>
       </c>
       <c r="J6" s="3">
-        <v>77.930000000000007</v>
+        <v>14.32</v>
       </c>
       <c r="K6" s="3">
-        <v>14.32</v>
+        <v>1.08</v>
       </c>
       <c r="L6" s="3">
-        <v>1.08</v>
+        <v>4.21</v>
       </c>
       <c r="M6" s="3">
-        <v>4.21</v>
+        <v>0.37</v>
       </c>
       <c r="N6" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="O6" s="3">
         <v>2.1</v>
       </c>
-      <c r="P6" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>2008</v>
       </c>
@@ -752,32 +711,26 @@
       <c r="H7" s="3">
         <v>3.1</v>
       </c>
-      <c r="I7" s="2">
-        <v>100</v>
+      <c r="I7" s="3">
+        <v>77.73</v>
       </c>
       <c r="J7" s="3">
-        <v>77.73</v>
+        <v>14.52</v>
       </c>
       <c r="K7" s="3">
-        <v>14.52</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="L7" s="3">
-        <v>1.1200000000000001</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="M7" s="3">
-        <v>4.1500000000000004</v>
+        <v>0.34</v>
       </c>
       <c r="N7" s="3">
-        <v>0.34</v>
-      </c>
-      <c r="O7" s="3">
         <v>2.14</v>
       </c>
-      <c r="P7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2009</v>
       </c>
@@ -802,32 +755,26 @@
       <c r="H8" s="3">
         <v>2.74</v>
       </c>
-      <c r="I8" s="2">
-        <v>100</v>
+      <c r="I8" s="3">
+        <v>77.680000000000007</v>
       </c>
       <c r="J8" s="3">
-        <v>77.680000000000007</v>
+        <v>14.68</v>
       </c>
       <c r="K8" s="3">
-        <v>14.68</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="L8" s="3">
-        <v>1.1399999999999999</v>
+        <v>4.01</v>
       </c>
       <c r="M8" s="3">
-        <v>4.01</v>
+        <v>0.38</v>
       </c>
       <c r="N8" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="O8" s="3">
         <v>2.12</v>
       </c>
-      <c r="P8" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2010</v>
       </c>
@@ -852,32 +799,26 @@
       <c r="H9" s="3">
         <v>2.63</v>
       </c>
-      <c r="I9" s="2">
-        <v>100</v>
+      <c r="I9" s="3">
+        <v>77.23</v>
       </c>
       <c r="J9" s="3">
-        <v>77.23</v>
+        <v>14.83</v>
       </c>
       <c r="K9" s="3">
-        <v>14.83</v>
+        <v>1.07</v>
       </c>
       <c r="L9" s="3">
-        <v>1.07</v>
+        <v>4.21</v>
       </c>
       <c r="M9" s="3">
-        <v>4.21</v>
+        <v>0.44</v>
       </c>
       <c r="N9" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="O9" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P9" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2011</v>
       </c>
@@ -902,32 +843,26 @@
       <c r="H10" s="3">
         <v>2.29</v>
       </c>
-      <c r="I10" s="2">
-        <v>100</v>
+      <c r="I10" s="3">
+        <v>77</v>
       </c>
       <c r="J10" s="3">
-        <v>77</v>
+        <v>14.99</v>
       </c>
       <c r="K10" s="3">
-        <v>14.99</v>
+        <v>1.06</v>
       </c>
       <c r="L10" s="3">
-        <v>1.06</v>
+        <v>4.34</v>
       </c>
       <c r="M10" s="3">
-        <v>4.34</v>
+        <v>0.37</v>
       </c>
       <c r="N10" s="3">
-        <v>0.37</v>
-      </c>
-      <c r="O10" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="P10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
@@ -952,32 +887,26 @@
       <c r="H11" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I11" s="2">
-        <v>100</v>
+      <c r="I11" s="3">
+        <v>75.349999999999994</v>
       </c>
       <c r="J11" s="3">
-        <v>75.349999999999994</v>
+        <v>15.18</v>
       </c>
       <c r="K11" s="3">
-        <v>15.18</v>
+        <v>1.31</v>
       </c>
       <c r="L11" s="3">
-        <v>1.31</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M11" s="3">
-        <v>4.9000000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="N11" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="O11" s="3">
         <v>2.79</v>
       </c>
-      <c r="P11" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2013</v>
       </c>
@@ -1002,32 +931,26 @@
       <c r="H12" s="3">
         <v>0.79</v>
       </c>
-      <c r="I12" s="2">
-        <v>100</v>
+      <c r="I12" s="3">
+        <v>74.31</v>
       </c>
       <c r="J12" s="3">
-        <v>74.31</v>
+        <v>15.54</v>
       </c>
       <c r="K12" s="3">
-        <v>15.54</v>
+        <v>1.32</v>
       </c>
       <c r="L12" s="3">
-        <v>1.32</v>
+        <v>5.33</v>
       </c>
       <c r="M12" s="3">
-        <v>5.33</v>
+        <v>0.49</v>
       </c>
       <c r="N12" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="O12" s="3">
         <v>3.01</v>
       </c>
-      <c r="P12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2014</v>
       </c>
@@ -1052,32 +975,26 @@
       <c r="H13" s="3">
         <v>0.7</v>
       </c>
-      <c r="I13" s="2">
-        <v>100</v>
+      <c r="I13" s="3">
+        <v>73.95</v>
       </c>
       <c r="J13" s="3">
-        <v>73.95</v>
+        <v>15.53</v>
       </c>
       <c r="K13" s="3">
-        <v>15.53</v>
+        <v>1.29</v>
       </c>
       <c r="L13" s="3">
-        <v>1.29</v>
+        <v>5.46</v>
       </c>
       <c r="M13" s="3">
-        <v>5.46</v>
+        <v>0.48</v>
       </c>
       <c r="N13" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="O13" s="3">
         <v>3.29</v>
       </c>
-      <c r="P13" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2015</v>
       </c>
@@ -1102,32 +1019,26 @@
       <c r="H14" s="3">
         <v>0.76</v>
       </c>
-      <c r="I14" s="2">
-        <v>100</v>
+      <c r="I14" s="3">
+        <v>73.900000000000006</v>
       </c>
       <c r="J14" s="3">
-        <v>73.900000000000006</v>
+        <v>15.43</v>
       </c>
       <c r="K14" s="3">
-        <v>15.43</v>
+        <v>1.51</v>
       </c>
       <c r="L14" s="3">
-        <v>1.51</v>
+        <v>5.58</v>
       </c>
       <c r="M14" s="3">
-        <v>5.58</v>
+        <v>0.49</v>
       </c>
       <c r="N14" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="O14" s="3">
         <v>3.1</v>
       </c>
-      <c r="P14" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2016</v>
       </c>
@@ -1152,32 +1063,26 @@
       <c r="H15" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I15" s="2">
-        <v>100</v>
+      <c r="I15" s="3">
+        <v>73.900000000000006</v>
       </c>
       <c r="J15" s="3">
-        <v>73.900000000000006</v>
+        <v>15.43</v>
       </c>
       <c r="K15" s="3">
-        <v>15.43</v>
+        <v>1.51</v>
       </c>
       <c r="L15" s="3">
-        <v>1.51</v>
+        <v>5.58</v>
       </c>
       <c r="M15" s="3">
-        <v>5.58</v>
+        <v>0.49</v>
       </c>
       <c r="N15" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="O15" s="3">
         <v>3.1</v>
       </c>
-      <c r="P15" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2017</v>
       </c>
@@ -1202,29 +1107,23 @@
       <c r="H16" s="3">
         <v>1.57</v>
       </c>
-      <c r="I16" s="2">
-        <v>100</v>
+      <c r="I16" s="3">
+        <v>73.44</v>
       </c>
       <c r="J16" s="3">
-        <v>73.44</v>
+        <v>15.12</v>
       </c>
       <c r="K16" s="3">
-        <v>15.12</v>
+        <v>1.48</v>
       </c>
       <c r="L16" s="3">
-        <v>1.48</v>
+        <v>6.06</v>
       </c>
       <c r="M16" s="3">
-        <v>6.06</v>
+        <v>0.54</v>
       </c>
       <c r="N16" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="O16" s="3">
         <v>3.37</v>
-      </c>
-      <c r="P16" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
